--- a/biology/Médecine/Iléostomie/Iléostomie.xlsx
+++ b/biology/Médecine/Iléostomie/Iléostomie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Il%C3%A9ostomie</t>
+          <t>Iléostomie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une iléostomie est une stomie qui permet de relier l'iléon vers l'extérieur à travers la paroi de l'abdomen par un acte chirurgical. Ainsi, le transit intestinal est dérivé directement de l'iléon vers l'extérieur et les matières fécales sont récupérées dans un appareillage spécifique. Cet appareillage est anciennement appelé « anus artificiel » même si le seul point commun avec un anus est la possibilité pour la stomie de faire passer les excréments.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Il%C3%A9ostomie</t>
+          <t>Iléostomie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Raisons pouvant motiver une iléostomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Une iléostomie est nécessaire lorsqu'une maladie ou une blessure a rendu le gros intestin incapable de traiter adéquatement les matières qu'il transporte, ou lorsque celui-ci a dû être enlevé au complet.
 Les maladies du gros intestin pouvant nécessiter son ablation incluent :
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Il%C3%A9ostomie</t>
+          <t>Iléostomie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,7 +564,9 @@
           <t>Vivre avec une iléostomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les personnes ayant une iléostomie doivent porter un sac extérieur (poche) pour récolter les selles. De nos jours, les sacs sont fabriqués de plastique léger et sont collés à la peau à l'aide d'une gaufre adhésive faite de pectine ou d'un autre matériau organique semblable. La gaufre est découpée en son centre de façon à s'ajuster autour de la base de la stomie pour éviter les fuites de selles sur la peau (et l'irritation qui en découle). Le sac et la gaufre peuvent être achetés en une seule pièce ou en deux pièces distinctes qui s'attachent l'une à l'autre en utilisant un système d'anneaux fermoirs de plastique permettant l'étanchéité. Le système deux pièces permet de remplacer rapidement les sacs sans avoir à retirer la gaufre. Par exemple, certaines personnes préfèrent installer temporairement un « mini-sac » pour la baignade ou d'autres activités. Les sacs réguliers sont dotés d'une ouverture dans le bas qui permet la vidange. Cette ouverture est normalement gardée hermétiquement fermée à l'aide d'une attache de plastique. Habituellement, le sac doit être vidé plusieurs fois par jour (plusieurs personnes stomisées trouvent pratique de faire cela à chaque fois qu'ils vont à la salle de bains pour uriner) et la gaufre doit être remplacée à tous les 2 à 5 jours, lorsqu'elle commence à se détériorer.
 Le sac de stomie reste près du corps et est habituellement non apparent sous les vêtements normaux à moins que la personne le laisse trop se remplir. Il existe cependant plusieurs marques proposant des sous-vêtements adaptés à la poche de stomie.
@@ -566,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Il%C3%A9ostomie</t>
+          <t>Iléostomie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,7 +600,9 @@
           <t>Autres options</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon l'origine des causes d'une coloproctectomie (ablation du côlon et du rectum), une autre opération permet d'obtenir de bons résultats. Il s'agit de l'anastomose iléo-anale, avec « réservoir en J ». Celui-ci est confectionné, après coloproctectomie, en utilisant la partie terminale de l'intestin grêle, et en formant un pseudo-rectum que l'on appelle réservoir en J. Puis ce réservoir est abouché à l'anus. Cette opération peut être faite en plusieurs temps, notamment avec pose d'une iléostomie provisoire, le temps de cicatrisation de l'anastomose. Cette intervention n'est cependant pas possible chez tous les patients, notamment ceux atteints de maladie de Crohn.
 </t>
